--- a/DATA_goal/Junction_Flooding_442.xlsx
+++ b/DATA_goal/Junction_Flooding_442.xlsx
@@ -759,103 +759,103 @@
         <v>44781.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.36</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.43</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.8</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.47</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.85</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.36</v>
       </c>
       <c r="I4" s="4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>33.11</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.38</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.2</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.15</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.37</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.19</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.34</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.47</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.4</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.8</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.87</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.84</v>
       </c>
       <c r="I5" s="4" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.27</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.44</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.27</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.27</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_442.xlsx
+++ b/DATA_goal/Junction_Flooding_442.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.50694444445</v>
+        <v>45123.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>0.596</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.131</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>0.703</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>0.594</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.673</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>2.927</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>1.311</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>0.574</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>0.838</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>0.092</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>0.781</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.626</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>2.165</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>0.638</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>1.735</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>2.278</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>0.419</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>0.467</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>0.214</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>0.476</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>2.624</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>0.591</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.51388888889</v>
+        <v>45123.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.47</v>
+        <v>7.524</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.26</v>
+        <v>5.666</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.295</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.37</v>
+        <v>16.004</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.06</v>
+        <v>13.415</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>5.44</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.64</v>
+        <v>16.916</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.22</v>
+        <v>9.797000000000001</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.23</v>
+        <v>4.756</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.26</v>
+        <v>6.212</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.37</v>
+        <v>6.703</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.35</v>
+        <v>6.736</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.29</v>
+        <v>1.885</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.25</v>
+        <v>6.166</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.47</v>
+        <v>8.012</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.27</v>
+        <v>4.56</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.24</v>
+        <v>1.21</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.2</v>
+        <v>0.347</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>83.675</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.52</v>
+        <v>15.969</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.27</v>
+        <v>5.684</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.74</v>
+        <v>11.477</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.25</v>
+        <v>6.495</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.793</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.26</v>
+        <v>8.952</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.32</v>
+        <v>4.887</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1</v>
+        <v>4.184</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.21</v>
+        <v>5.047</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.6</v>
+        <v>6.985</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.62</v>
+        <v>0.343</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.47</v>
+        <v>15.62</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.26</v>
+        <v>3.401</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.25</v>
+        <v>6.665</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.52083333334</v>
+        <v>45123.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.36</v>
+        <v>17.17</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.43</v>
+        <v>12.908</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.599</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>6.8</v>
+        <v>37.146</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>5.47</v>
+        <v>30.856</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.85</v>
+        <v>13.187</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.36</v>
+        <v>48.749</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.8</v>
+        <v>21.224</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.74</v>
+        <v>9.835000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.64</v>
+        <v>14.042</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.92</v>
+        <v>15.094</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.17</v>
+        <v>15.739</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.92</v>
+        <v>4.328</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.55</v>
+        <v>13.664</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.67</v>
+        <v>18.986</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.15</v>
+        <v>10.885</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.535</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>33.11</v>
+        <v>198.398</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>6.74</v>
+        <v>37.393</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.37</v>
+        <v>12.615</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.84</v>
+        <v>25.806</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.45</v>
+        <v>13.766</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.38</v>
+        <v>1.776</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.2</v>
+        <v>24.653</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.15</v>
+        <v>11.029</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.37</v>
+        <v>9.617000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.17</v>
+        <v>11.409</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.19</v>
+        <v>15.844</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.223</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.34</v>
+        <v>44.83</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.47</v>
+        <v>7.304</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.89</v>
+        <v>15.424</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.52777777778</v>
+        <v>45123.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.4</v>
+        <v>22.48</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.72</v>
+        <v>16.89</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.77</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.8</v>
+        <v>48.76</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.87</v>
+        <v>40.43</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.1</v>
+        <v>17.45</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.84</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.69</v>
+        <v>27.54</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.3</v>
+        <v>12.62</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.88</v>
+        <v>18.34</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.09</v>
+        <v>19.71</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.3</v>
+        <v>20.68</v>
       </c>
       <c r="N5" s="4" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.66</v>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.19</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>21.56</v>
+        <v>261.45</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.03</v>
+        <v>49.12</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.42</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.72</v>
+        <v>33.64</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.79</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.32</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.44</v>
+        <v>33.51</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.54</v>
+        <v>14.4</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.72</v>
+        <v>12.6</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.57</v>
+        <v>14.9</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.27</v>
+        <v>20.71</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.17</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.27</v>
+        <v>62.29</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.07</v>
+        <v>9.44</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>27.18</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.5</v>
+        <v>20.24</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_442.xlsx
+++ b/DATA_goal/Junction_Flooding_442.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45123.50694444445</v>
+        <v>44781.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.596</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5659999999999999</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.131</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.703</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.594</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.673</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.927</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.311</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.574</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.838</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.092</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.061</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.781</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.626</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.165</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.638</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.735</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.278</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.128</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.419</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.467</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.214</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.476</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.8090000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.624</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.591</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45123.51388888889</v>
+        <v>44781.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.524</v>
+        <v>0.468</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.666</v>
+        <v>0.261</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.295</v>
+        <v>0.174</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>16.004</v>
+        <v>0.365</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>13.415</v>
+        <v>0.064</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.44</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>16.916</v>
+        <v>0.637</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.797000000000001</v>
+        <v>0.218</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.756</v>
+        <v>0.229</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.212</v>
+        <v>0.264</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.703</v>
+        <v>0.374</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.736</v>
+        <v>0.347</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.885</v>
+        <v>0.286</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.166</v>
+        <v>0.248</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.012</v>
+        <v>0.471</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.56</v>
+        <v>0.272</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.21</v>
+        <v>0.238</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.347</v>
+        <v>0.202</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>83.675</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>15.969</v>
+        <v>0.525</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.684</v>
+        <v>0.271</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>11.477</v>
+        <v>0.74</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.495</v>
+        <v>0.248</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.793</v>
+        <v>0.124</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.952</v>
+        <v>0.265</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.887</v>
+        <v>0.32</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.184</v>
+        <v>1.002</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.047</v>
+        <v>0.213</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.985</v>
+        <v>0.605</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.343</v>
+        <v>0.621</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>15.62</v>
+        <v>0.472</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.401</v>
+        <v>0.264</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.665</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45123.52083333334</v>
+        <v>44781.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.17</v>
+        <v>3.355</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.908</v>
+        <v>2.434</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.599</v>
+        <v>0.252</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>37.146</v>
+        <v>6.798</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>30.856</v>
+        <v>5.473</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.187</v>
+        <v>2.845</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>48.749</v>
+        <v>6.356</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>21.224</v>
+        <v>3.802</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.835000000000001</v>
+        <v>1.742</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.042</v>
+        <v>2.639</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>15.094</v>
+        <v>2.921</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.739</v>
+        <v>3.168</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.328</v>
+        <v>0.92</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.664</v>
+        <v>2.548</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>18.986</v>
+        <v>3.669</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.885</v>
+        <v>2.147</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.225</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.535</v>
+        <v>0.245</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>198.398</v>
+        <v>33.114</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>37.393</v>
+        <v>6.743</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.615</v>
+        <v>2.365</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>25.806</v>
+        <v>4.841</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.766</v>
+        <v>2.45</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.776</v>
+        <v>0.384</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>24.653</v>
+        <v>3.201</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.029</v>
+        <v>2.153</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.617000000000001</v>
+        <v>2.372</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.409</v>
+        <v>2.174</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.844</v>
+        <v>3.187</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.223</v>
+        <v>0.453</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>44.83</v>
+        <v>5.337</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.304</v>
+        <v>1.47</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.424</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45123.52777777778</v>
+        <v>44781.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>22.48</v>
+        <v>2.397</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.89</v>
+        <v>1.718</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.199</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>48.76</v>
+        <v>4.803</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>40.43</v>
+        <v>3.873</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>17.45</v>
+        <v>2.104</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>68.09999999999999</v>
+        <v>6.839</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>27.54</v>
+        <v>2.695</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.62</v>
+        <v>1.299</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.34</v>
+        <v>1.88</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>19.71</v>
+        <v>2.093</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.68</v>
+        <v>2.301</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.67</v>
+        <v>0.663</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.78</v>
+        <v>1.816</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>25</v>
+        <v>2.72</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.37</v>
+        <v>1.533</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.19</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.191</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>261.45</v>
+        <v>21.56</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>49.12</v>
+        <v>5.028</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>16.42</v>
+        <v>1.678</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>33.64</v>
+        <v>3.724</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.79</v>
+        <v>1.784</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.32</v>
+        <v>0.27</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>33.51</v>
+        <v>3.44</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.4</v>
+        <v>1.538</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.6</v>
+        <v>1.721</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.9</v>
+        <v>1.569</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.71</v>
+        <v>2.274</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>6.275</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>1.072</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>2.053</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.17</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>62.29</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>20.24</v>
+      <c r="S6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_442.xlsx
+++ b/DATA_goal/Junction_Flooding_442.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.50694444445</v>
+        <v>45123.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>0.596</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.131</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>0.703</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>0.594</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.673</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>2.927</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>1.311</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>0.574</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>0.838</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>0.092</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>0.781</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.626</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>2.165</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>0.638</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>1.735</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>2.278</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>0.419</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>0.467</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>0.214</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>0.476</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>2.624</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>0.591</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.51388888889</v>
+        <v>45123.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.468</v>
+        <v>7.524</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.261</v>
+        <v>5.666</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.174</v>
+        <v>0.295</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.365</v>
+        <v>16.004</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.064</v>
+        <v>13.415</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>5.44</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.637</v>
+        <v>16.916</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.218</v>
+        <v>9.797000000000001</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.229</v>
+        <v>4.756</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.264</v>
+        <v>6.212</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.374</v>
+        <v>6.703</v>
       </c>
       <c r="M3" s="4" t="n">
+        <v>6.736</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>6.166</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>8.012</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.347</v>
       </c>
-      <c r="N3" s="4" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.238</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.202</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>83.675</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.525</v>
+        <v>15.969</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.271</v>
+        <v>5.684</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.74</v>
+        <v>11.477</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.248</v>
+        <v>6.495</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.124</v>
+        <v>0.793</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.265</v>
+        <v>8.952</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.32</v>
+        <v>4.887</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.002</v>
+        <v>4.184</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.213</v>
+        <v>5.047</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.605</v>
+        <v>6.985</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.621</v>
+        <v>0.343</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.472</v>
+        <v>15.62</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.264</v>
+        <v>3.401</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.25</v>
+        <v>6.665</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.52083333334</v>
+        <v>45123.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.355</v>
+        <v>17.17</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.434</v>
+        <v>12.908</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.252</v>
+        <v>0.599</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>6.798</v>
+        <v>37.146</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>5.473</v>
+        <v>30.856</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.845</v>
+        <v>13.187</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.356</v>
+        <v>48.749</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.802</v>
+        <v>21.224</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.742</v>
+        <v>9.835000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.639</v>
+        <v>14.042</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.921</v>
+        <v>15.094</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.168</v>
+        <v>15.739</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.92</v>
+        <v>4.328</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.548</v>
+        <v>13.664</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.669</v>
+        <v>18.986</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.147</v>
+        <v>10.885</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.225</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.245</v>
+        <v>0.535</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>33.114</v>
+        <v>198.398</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>6.743</v>
+        <v>37.393</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.365</v>
+        <v>12.615</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.841</v>
+        <v>25.806</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.45</v>
+        <v>13.766</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.384</v>
+        <v>1.776</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.201</v>
+        <v>24.653</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.153</v>
+        <v>11.029</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.372</v>
+        <v>9.617000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.174</v>
+        <v>11.409</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.187</v>
+        <v>15.844</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.453</v>
+        <v>0.223</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.337</v>
+        <v>44.83</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.47</v>
+        <v>7.304</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.89</v>
+        <v>15.424</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.52777777778</v>
+        <v>45123.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.397</v>
+        <v>22.48</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.718</v>
+        <v>16.89</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.199</v>
+        <v>0.77</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.803</v>
+        <v>48.76</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.873</v>
+        <v>40.43</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.104</v>
+        <v>17.45</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.839</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.695</v>
+        <v>27.54</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.299</v>
+        <v>12.62</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.88</v>
+        <v>18.34</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.093</v>
+        <v>19.71</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.301</v>
+        <v>20.68</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.663</v>
+        <v>5.67</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.816</v>
+        <v>17.78</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.72</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.533</v>
+        <v>14.37</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.19</v>
+        <v>0.79</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.191</v>
+        <v>0.66</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.56</v>
+        <v>261.45</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.028</v>
+        <v>49.12</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.678</v>
+        <v>16.42</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.724</v>
+        <v>33.64</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.784</v>
+        <v>17.79</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.32</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.44</v>
+        <v>33.51</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.538</v>
+        <v>14.4</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.721</v>
+        <v>12.6</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.569</v>
+        <v>14.9</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.274</v>
+        <v>20.71</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.361</v>
+        <v>0.17</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.275</v>
+        <v>62.29</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.072</v>
+        <v>9.44</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.053</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>27.18</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.5</v>
+        <v>20.24</v>
       </c>
     </row>
   </sheetData>
